--- a/UploadedFiles/InventoryTurns.xlsx
+++ b/UploadedFiles/InventoryTurns.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Inventory\Inventory Turns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="InventoryTurns" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InventoryTurns!$A$1:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InventoryTurns!$A$1:$D$107</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="40">
   <si>
     <t>CHEM</t>
   </si>
@@ -141,12 +141,18 @@
   </si>
   <si>
     <t>ASOF</t>
+  </si>
+  <si>
+    <t>PRECAG</t>
+  </si>
+  <si>
+    <t>MHSTORE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,12 +200,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblInventoryTurns" displayName="tblInventoryTurns" ref="A1:E89" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:E89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblInventoryTurns" displayName="tblInventoryTurns" ref="A1:E107" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:E107"/>
   <tableColumns count="5">
     <tableColumn id="1" name="LOCNCODE" dataDxfId="2"/>
     <tableColumn id="2" name="CATEGORY"/>
@@ -521,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,25 +544,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
+      <c r="A2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -565,15 +571,15 @@
         <v>32</v>
       </c>
       <c r="D2" s="1">
-        <v>1.1362837837837836</v>
-      </c>
-      <c r="E2" s="5">
-        <v>42443</v>
+        <v>9.7945000000000029</v>
+      </c>
+      <c r="E2" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -582,15 +588,15 @@
         <v>32</v>
       </c>
       <c r="D3" s="1">
-        <v>0.32906666666666667</v>
-      </c>
-      <c r="E3" s="5">
-        <v>42443</v>
+        <v>8.8346938775510218</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -599,15 +605,15 @@
         <v>32</v>
       </c>
       <c r="D4" s="1">
-        <v>9.8980722891566266</v>
-      </c>
-      <c r="E4" s="5">
-        <v>42443</v>
+        <v>7.4248427672955968</v>
+      </c>
+      <c r="E4" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
+      <c r="A5" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -616,15 +622,15 @@
         <v>32</v>
       </c>
       <c r="D5" s="1">
-        <v>17.665806451612902</v>
-      </c>
-      <c r="E5" s="5">
-        <v>42443</v>
+        <v>6.720128205128205</v>
+      </c>
+      <c r="E5" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
+      <c r="A6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -633,15 +639,15 @@
         <v>32</v>
       </c>
       <c r="D6" s="1">
-        <v>1.6137209302325581</v>
-      </c>
-      <c r="E6" s="5">
-        <v>42443</v>
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="E6" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
+      <c r="A7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -650,15 +656,15 @@
         <v>32</v>
       </c>
       <c r="D7" s="1">
-        <v>0.71615384615384614</v>
-      </c>
-      <c r="E7" s="5">
-        <v>42443</v>
+        <v>3.8350000000000004</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
+      <c r="A8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -667,15 +673,15 @@
         <v>32</v>
       </c>
       <c r="D8" s="1">
-        <v>6.2310526315789474</v>
-      </c>
-      <c r="E8" s="5">
-        <v>42443</v>
+        <v>3.3264285714285715</v>
+      </c>
+      <c r="E8" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
+      <c r="A9" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -684,15 +690,15 @@
         <v>32</v>
       </c>
       <c r="D9" s="1">
-        <v>5.7863507109004715</v>
-      </c>
-      <c r="E9" s="5">
-        <v>42443</v>
+        <v>3.1135135135135141</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
+      <c r="A10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -701,15 +707,15 @@
         <v>32</v>
       </c>
       <c r="D10" s="1">
-        <v>7.226912751677852</v>
-      </c>
-      <c r="E10" s="5">
-        <v>42443</v>
+        <v>2.6199999999999997</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
+      <c r="A11" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -718,15 +724,15 @@
         <v>32</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0278980891719747</v>
-      </c>
-      <c r="E11" s="5">
-        <v>42443</v>
+        <v>2.5535251798561163</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
+      <c r="A12" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -735,15 +741,15 @@
         <v>32</v>
       </c>
       <c r="D12" s="1">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="E12" s="5">
-        <v>42443</v>
+        <v>2.3282022471910109</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
+      <c r="A13" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -752,15 +758,15 @@
         <v>32</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0572027972027969</v>
-      </c>
-      <c r="E13" s="5">
-        <v>42443</v>
+        <v>2.1182941176470593</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+      <c r="A14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -769,15 +775,15 @@
         <v>32</v>
       </c>
       <c r="D14" s="1">
-        <v>0.28962962962962963</v>
-      </c>
-      <c r="E14" s="5">
-        <v>42443</v>
+        <v>1.9738461538461538</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
+      <c r="A15" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -786,15 +792,15 @@
         <v>32</v>
       </c>
       <c r="D15" s="1">
-        <v>1.6644897959183671</v>
-      </c>
-      <c r="E15" s="5">
-        <v>42443</v>
+        <v>1.9703791469194309</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
+      <c r="A16" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -803,15 +809,15 @@
         <v>32</v>
       </c>
       <c r="D16" s="1">
-        <v>0.22695652173913042</v>
-      </c>
-      <c r="E16" s="5">
-        <v>42443</v>
+        <v>1.8057142857142858</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
+      <c r="A17" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -820,15 +826,15 @@
         <v>32</v>
       </c>
       <c r="D17" s="1">
-        <v>0.19266666666666668</v>
-      </c>
-      <c r="E17" s="5">
-        <v>42443</v>
+        <v>1.7533333333333332</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>6</v>
+      <c r="A18" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -837,100 +843,100 @@
         <v>32</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0696951219512196</v>
-      </c>
-      <c r="E18" s="5">
-        <v>42443</v>
+        <v>1.5583333333333336</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10.410394736842102</v>
-      </c>
-      <c r="E19" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1">
-        <v>0.68088607594936656</v>
-      </c>
-      <c r="E20" s="5">
-        <v>42443</v>
+        <v>1.3633986928104578</v>
+      </c>
+      <c r="E20" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1">
-        <v>11.133076923076922</v>
-      </c>
-      <c r="E21" s="5">
-        <v>42443</v>
+        <v>1.2942857142857147</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
+      <c r="A22" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
-        <v>10.674230769230768</v>
-      </c>
-      <c r="E22" s="5">
-        <v>42443</v>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="E22" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
+      <c r="A23" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
-        <v>4.4085714285714284</v>
-      </c>
-      <c r="E23" s="5">
-        <v>42443</v>
+        <v>0.58977272727272734</v>
+      </c>
+      <c r="E23" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
+      <c r="A24" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -939,15 +945,15 @@
         <v>33</v>
       </c>
       <c r="D24" s="1">
-        <v>4.1443137254901963</v>
-      </c>
-      <c r="E24" s="5">
-        <v>42443</v>
+        <v>10.531666666666668</v>
+      </c>
+      <c r="E24" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
+      <c r="A25" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -956,15 +962,15 @@
         <v>33</v>
       </c>
       <c r="D25" s="1">
-        <v>2.7589999999999995</v>
-      </c>
-      <c r="E25" s="5">
-        <v>42443</v>
+        <v>10.357539682539683</v>
+      </c>
+      <c r="E25" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -973,15 +979,15 @@
         <v>33</v>
       </c>
       <c r="D26" s="1">
-        <v>2.8966666666666665</v>
-      </c>
-      <c r="E26" s="5">
-        <v>42443</v>
+        <v>7.6685135135135125</v>
+      </c>
+      <c r="E26" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>13</v>
+      <c r="A27" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -990,15 +996,15 @@
         <v>33</v>
       </c>
       <c r="D27" s="1">
-        <v>3.1959090909090917</v>
-      </c>
-      <c r="E27" s="5">
-        <v>42443</v>
+        <v>6.8944155844155848</v>
+      </c>
+      <c r="E27" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
+      <c r="A28" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -1007,15 +1013,15 @@
         <v>33</v>
       </c>
       <c r="D28" s="1">
-        <v>11.972820512820514</v>
-      </c>
-      <c r="E28" s="5">
-        <v>42443</v>
+        <v>6.5871052631578957</v>
+      </c>
+      <c r="E28" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
+      <c r="A29" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1024,15 +1030,15 @@
         <v>33</v>
       </c>
       <c r="D29" s="1">
-        <v>7.0712658227848104</v>
-      </c>
-      <c r="E29" s="5">
-        <v>42443</v>
+        <v>6.4532000000000025</v>
+      </c>
+      <c r="E29" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>3</v>
+      <c r="A30" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -1041,15 +1047,15 @@
         <v>33</v>
       </c>
       <c r="D30" s="1">
-        <v>1.7213157894736846</v>
-      </c>
-      <c r="E30" s="5">
-        <v>42443</v>
+        <v>5.9269230769230763</v>
+      </c>
+      <c r="E30" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
+      <c r="A31" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -1058,15 +1064,15 @@
         <v>33</v>
       </c>
       <c r="D31" s="1">
-        <v>10.493150684931507</v>
-      </c>
-      <c r="E31" s="5">
-        <v>42443</v>
+        <v>5.7623076923076928</v>
+      </c>
+      <c r="E31" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
+      <c r="A32" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -1075,15 +1081,15 @@
         <v>33</v>
       </c>
       <c r="D32" s="1">
-        <v>1.82</v>
-      </c>
-      <c r="E32" s="5">
-        <v>42443</v>
+        <v>5.5085714285714289</v>
+      </c>
+      <c r="E32" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
+      <c r="A33" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -1092,15 +1098,15 @@
         <v>33</v>
       </c>
       <c r="D33" s="1">
-        <v>6.9479063360881472</v>
-      </c>
-      <c r="E33" s="5">
-        <v>42443</v>
+        <v>5.3003333333333353</v>
+      </c>
+      <c r="E33" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
+      <c r="A34" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -1109,15 +1115,15 @@
         <v>33</v>
       </c>
       <c r="D34" s="1">
-        <v>5.0157142857142842</v>
-      </c>
-      <c r="E34" s="5">
-        <v>42443</v>
+        <v>5.2025728155339781</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
+      <c r="A35" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -1126,15 +1132,15 @@
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>1.2205681818181817</v>
-      </c>
-      <c r="E35" s="5">
-        <v>42443</v>
+        <v>5.1834482758620686</v>
+      </c>
+      <c r="E35" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
+      <c r="A36" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -1143,15 +1149,15 @@
         <v>33</v>
       </c>
       <c r="D36" s="1">
-        <v>17.306533333333341</v>
-      </c>
-      <c r="E36" s="5">
-        <v>42443</v>
+        <v>5.1559210526315802</v>
+      </c>
+      <c r="E36" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>17</v>
+      <c r="A37" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -1160,15 +1166,15 @@
         <v>33</v>
       </c>
       <c r="D37" s="1">
-        <v>11.886043956043954</v>
-      </c>
-      <c r="E37" s="5">
-        <v>42443</v>
+        <v>4.8387012987012996</v>
+      </c>
+      <c r="E37" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
+      <c r="A38" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -1177,15 +1183,15 @@
         <v>33</v>
       </c>
       <c r="D38" s="1">
-        <v>10.593666666666667</v>
-      </c>
-      <c r="E38" s="5">
-        <v>42443</v>
+        <v>4.748095238095237</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>6</v>
+      <c r="A39" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -1194,15 +1200,15 @@
         <v>33</v>
       </c>
       <c r="D39" s="1">
-        <v>2.8860377358490563</v>
-      </c>
-      <c r="E39" s="5">
-        <v>42443</v>
+        <v>4.3517777777777784</v>
+      </c>
+      <c r="E39" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>20</v>
+      <c r="A40" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -1211,117 +1217,117 @@
         <v>33</v>
       </c>
       <c r="D40" s="1">
-        <v>5.3178571428571431</v>
-      </c>
-      <c r="E40" s="5">
-        <v>42443</v>
+        <v>3.2209999999999996</v>
+      </c>
+      <c r="E40" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
+      <c r="A41" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1">
-        <v>1.23953125</v>
-      </c>
-      <c r="E41" s="5">
-        <v>42443</v>
+        <v>3.1287654320987643</v>
+      </c>
+      <c r="E41" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
+      <c r="A42" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1">
-        <v>1.1739354838709677</v>
-      </c>
-      <c r="E42" s="5">
-        <v>42443</v>
+        <v>3.0472413793103454</v>
+      </c>
+      <c r="E42" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>2</v>
+      <c r="A43" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1">
-        <v>1.885</v>
-      </c>
-      <c r="E43" s="5">
-        <v>42443</v>
+        <v>2.9265217391304343</v>
+      </c>
+      <c r="E43" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>1</v>
+      <c r="A44" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="1">
-        <v>0.7665384615384615</v>
-      </c>
-      <c r="E44" s="5">
-        <v>42443</v>
+        <v>2.9046428571428571</v>
+      </c>
+      <c r="E44" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.7102121212121215</v>
+      </c>
+      <c r="E45" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.54454545454545455</v>
+      </c>
+      <c r="E46" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="E45" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.64383177570093464</v>
-      </c>
-      <c r="E46" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -1330,15 +1336,15 @@
         <v>34</v>
       </c>
       <c r="D47" s="1">
-        <v>-2.2011428571428571</v>
-      </c>
-      <c r="E47" s="5">
-        <v>42443</v>
+        <v>7.8476923076923075</v>
+      </c>
+      <c r="E47" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
+      <c r="A48" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -1347,15 +1353,15 @@
         <v>34</v>
       </c>
       <c r="D48" s="1">
-        <v>2.1130468749999998</v>
-      </c>
-      <c r="E48" s="5">
-        <v>42443</v>
+        <v>2.9778571428571432</v>
+      </c>
+      <c r="E48" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>13</v>
+      <c r="A49" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -1364,15 +1370,15 @@
         <v>34</v>
       </c>
       <c r="D49" s="1">
-        <v>1.4009659090909092</v>
-      </c>
-      <c r="E49" s="5">
-        <v>42443</v>
+        <v>2.1746153846153851</v>
+      </c>
+      <c r="E49" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>4</v>
+      <c r="A50" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -1381,15 +1387,15 @@
         <v>34</v>
       </c>
       <c r="D50" s="1">
-        <v>9.2792307692307681</v>
-      </c>
-      <c r="E50" s="5">
-        <v>42443</v>
+        <v>2.1082352941176468</v>
+      </c>
+      <c r="E50" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>5</v>
+      <c r="A51" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -1398,15 +1404,15 @@
         <v>34</v>
       </c>
       <c r="D51" s="1">
-        <v>1.620701754385965</v>
-      </c>
-      <c r="E51" s="5">
-        <v>42443</v>
+        <v>2.1057142857142854</v>
+      </c>
+      <c r="E51" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>3</v>
+      <c r="A52" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
@@ -1415,15 +1421,15 @@
         <v>34</v>
       </c>
       <c r="D52" s="1">
-        <v>2.2797872340425531</v>
-      </c>
-      <c r="E52" s="5">
-        <v>42443</v>
+        <v>2.048888888888889</v>
+      </c>
+      <c r="E52" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>8</v>
+      <c r="A53" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -1432,15 +1438,15 @@
         <v>34</v>
       </c>
       <c r="D53" s="1">
-        <v>2.2195121951219514</v>
-      </c>
-      <c r="E53" s="5">
-        <v>42443</v>
+        <v>1.5818478260869566</v>
+      </c>
+      <c r="E53" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>12</v>
+      <c r="A54" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -1449,15 +1455,15 @@
         <v>34</v>
       </c>
       <c r="D54" s="1">
-        <v>1.0184375000000001</v>
-      </c>
-      <c r="E54" s="5">
-        <v>42443</v>
+        <v>1.5384033613445378</v>
+      </c>
+      <c r="E54" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>7</v>
+      <c r="A55" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -1466,15 +1472,15 @@
         <v>34</v>
       </c>
       <c r="D55" s="1">
-        <v>-0.30455882352941188</v>
-      </c>
-      <c r="E55" s="5">
-        <v>42443</v>
+        <v>1.4960606060606061</v>
+      </c>
+      <c r="E55" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>15</v>
+      <c r="A56" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -1483,15 +1489,15 @@
         <v>34</v>
       </c>
       <c r="D56" s="1">
-        <v>2.0865714285714287</v>
-      </c>
-      <c r="E56" s="5">
-        <v>42443</v>
+        <v>1.4714516129032256</v>
+      </c>
+      <c r="E56" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>9</v>
+      <c r="A57" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -1500,14 +1506,14 @@
         <v>34</v>
       </c>
       <c r="D57" s="1">
-        <v>2.1213440860215051</v>
-      </c>
-      <c r="E57" s="5">
-        <v>42443</v>
+        <v>1.3029078014184399</v>
+      </c>
+      <c r="E57" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B58" t="s">
@@ -1517,15 +1523,15 @@
         <v>34</v>
       </c>
       <c r="D58" s="1">
-        <v>-5.7132699619771872</v>
-      </c>
-      <c r="E58" s="5">
-        <v>42443</v>
+        <v>1.2366666666666661</v>
+      </c>
+      <c r="E58" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>17</v>
+      <c r="A59" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>25</v>
@@ -1534,15 +1540,15 @@
         <v>34</v>
       </c>
       <c r="D59" s="1">
-        <v>1.4604040404040401</v>
-      </c>
-      <c r="E59" s="5">
-        <v>42443</v>
+        <v>1.1039622641509435</v>
+      </c>
+      <c r="E59" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>23</v>
+      <c r="A60" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
@@ -1551,15 +1557,15 @@
         <v>34</v>
       </c>
       <c r="D60" s="1">
-        <v>0.15048780487804878</v>
-      </c>
-      <c r="E60" s="5">
-        <v>42443</v>
+        <v>0.93221052631578949</v>
+      </c>
+      <c r="E60" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>6</v>
+      <c r="A61" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -1568,15 +1574,15 @@
         <v>34</v>
       </c>
       <c r="D61" s="1">
-        <v>0.22066666666666668</v>
-      </c>
-      <c r="E61" s="5">
-        <v>42443</v>
+        <v>0.82635451505016622</v>
+      </c>
+      <c r="E61" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>20</v>
+      <c r="A62" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -1585,15 +1591,15 @@
         <v>34</v>
       </c>
       <c r="D62" s="1">
-        <v>1.3257333333333334</v>
-      </c>
-      <c r="E62" s="5">
-        <v>42443</v>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E62" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>21</v>
+      <c r="A63" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -1602,134 +1608,134 @@
         <v>34</v>
       </c>
       <c r="D63" s="1">
-        <v>2.1725925925925926</v>
-      </c>
-      <c r="E63" s="5">
-        <v>42443</v>
+        <v>0.24829787234042558</v>
+      </c>
+      <c r="E63" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>11</v>
+      <c r="A64" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="1">
-        <v>0.41461538461538461</v>
-      </c>
-      <c r="E64" s="5">
-        <v>42443</v>
+        <v>7.4054054054054005E-2</v>
+      </c>
+      <c r="E64" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>14</v>
+      <c r="A65" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="E65" s="5">
-        <v>42443</v>
+        <v>4.9793814432989726E-2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>18</v>
+      <c r="A66" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1">
-        <v>0.94727272727272727</v>
-      </c>
-      <c r="E66" s="5">
-        <v>42443</v>
+        <v>2.7241379310344829E-2</v>
+      </c>
+      <c r="E66" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>10</v>
+      <c r="A67" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="1">
-        <v>0.5603703703703703</v>
-      </c>
-      <c r="E67" s="5">
-        <v>42443</v>
+        <v>1.3727810650887576E-2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>19</v>
+      <c r="A68" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="1">
-        <v>0.31791666666666668</v>
-      </c>
-      <c r="E68" s="5">
-        <v>42443</v>
+        <v>-1.8515384615384616</v>
+      </c>
+      <c r="E68" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>24</v>
+      <c r="A69" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="1">
-        <v>4.6635714285714283</v>
-      </c>
-      <c r="E69" s="5">
-        <v>42443</v>
+        <v>-6.5441666666666682</v>
+      </c>
+      <c r="E69" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>13</v>
+      <c r="A70" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="1">
-        <v>0.25655172413793104</v>
-      </c>
-      <c r="E70" s="5">
-        <v>42443</v>
+        <v>-7.15</v>
+      </c>
+      <c r="E70" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>3</v>
+      <c r="A71" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>27</v>
@@ -1738,15 +1744,15 @@
         <v>35</v>
       </c>
       <c r="D71" s="1">
-        <v>2.6302941176470589</v>
-      </c>
-      <c r="E71" s="5">
-        <v>42443</v>
+        <v>8.2905263157894744</v>
+      </c>
+      <c r="E71" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>12</v>
+      <c r="A72" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
@@ -1755,15 +1761,15 @@
         <v>35</v>
       </c>
       <c r="D72" s="1">
-        <v>0.155</v>
-      </c>
-      <c r="E72" s="5">
-        <v>42443</v>
+        <v>4.4064705882352939</v>
+      </c>
+      <c r="E72" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>7</v>
+      <c r="A73" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
@@ -1772,15 +1778,15 @@
         <v>35</v>
       </c>
       <c r="D73" s="1">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="E73" s="5">
-        <v>42443</v>
+        <v>3.6560000000000006</v>
+      </c>
+      <c r="E73" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>15</v>
+      <c r="A74" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -1789,15 +1795,15 @@
         <v>35</v>
       </c>
       <c r="D74" s="1">
-        <v>4.0330769230769228</v>
-      </c>
-      <c r="E74" s="5">
-        <v>42443</v>
+        <v>3.4272307692307682</v>
+      </c>
+      <c r="E74" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>9</v>
+      <c r="A75" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
@@ -1806,15 +1812,15 @@
         <v>35</v>
       </c>
       <c r="D75" s="1">
-        <v>4.146470588235295</v>
-      </c>
-      <c r="E75" s="5">
-        <v>42443</v>
+        <v>2.8430000000000004</v>
+      </c>
+      <c r="E75" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>16</v>
+      <c r="A76" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -1823,14 +1829,14 @@
         <v>35</v>
       </c>
       <c r="D76" s="1">
-        <v>-29.248666666666669</v>
-      </c>
-      <c r="E76" s="5">
-        <v>42443</v>
+        <v>2.1429166666666668</v>
+      </c>
+      <c r="E76" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B77" t="s">
@@ -1840,15 +1846,15 @@
         <v>35</v>
       </c>
       <c r="D77" s="1">
-        <v>9.0277777777777786</v>
-      </c>
-      <c r="E77" s="5">
-        <v>42443</v>
+        <v>1.9727777777777777</v>
+      </c>
+      <c r="E77" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>6</v>
+      <c r="A78" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B78" t="s">
         <v>27</v>
@@ -1857,14 +1863,14 @@
         <v>35</v>
       </c>
       <c r="D78" s="1">
-        <v>1.0431034482758621</v>
-      </c>
-      <c r="E78" s="5">
-        <v>42443</v>
+        <v>1.9292307692307693</v>
+      </c>
+      <c r="E78" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B79" t="s">
@@ -1874,180 +1880,486 @@
         <v>35</v>
       </c>
       <c r="D79" s="1">
-        <v>1.2352941176470589</v>
-      </c>
-      <c r="E79" s="5">
-        <v>42443</v>
+        <v>1.8705128205128203</v>
+      </c>
+      <c r="E79" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1.7866666666666668</v>
+      </c>
+      <c r="E80" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.68828125</v>
+      </c>
+      <c r="E81" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1.5907999999999998</v>
+      </c>
+      <c r="E82" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1.4632142857142856</v>
+      </c>
+      <c r="E83" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="E84" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1.1521739130434785</v>
+      </c>
+      <c r="E85" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E86" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="E87" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E88" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="E89" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.45607142857142852</v>
+      </c>
+      <c r="E90" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-4.29</v>
+      </c>
+      <c r="E91" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
         <v>26</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C92" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="1">
-        <v>0.20712328767123286</v>
-      </c>
-      <c r="E80" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="D92" s="1">
+        <v>21.439166666666665</v>
+      </c>
+      <c r="E92" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="1">
+        <v>15.024285714285716</v>
+      </c>
+      <c r="E93" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="1">
+        <v>13.413333333333332</v>
+      </c>
+      <c r="E94" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="1">
+        <v>10.815714285714284</v>
+      </c>
+      <c r="E95" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B96" t="s">
         <v>26</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C96" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="1">
-        <v>6.112857142857143</v>
-      </c>
-      <c r="E81" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="D96" s="1">
+        <v>10.0825</v>
+      </c>
+      <c r="E96" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4.4309259259259264</v>
+      </c>
+      <c r="E97" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4.2502380952380934</v>
+      </c>
+      <c r="E98" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3.7432631578947375</v>
+      </c>
+      <c r="E99" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3.5473684210526319</v>
+      </c>
+      <c r="E100" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2.8096551724137933</v>
+      </c>
+      <c r="E101" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2.6305333333333327</v>
+      </c>
+      <c r="E102" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2.6011428571428574</v>
+      </c>
+      <c r="E103" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1.5718181818181818</v>
+      </c>
+      <c r="E104" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B105" t="s">
         <v>26</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C105" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="1">
-        <v>1</v>
-      </c>
-      <c r="E82" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="D105" s="1">
+        <v>0.21199999999999974</v>
+      </c>
+      <c r="E105" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
         <v>26</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C106" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="1">
-        <v>0.99785185185185188</v>
-      </c>
-      <c r="E83" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="D106" s="1">
+        <v>-1.1012500000000001</v>
+      </c>
+      <c r="E106" s="4">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
         <v>26</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C107" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="1">
-        <v>4.1884057971014493E-2</v>
-      </c>
-      <c r="E84" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="1">
-        <v>1.3902898550724636</v>
-      </c>
-      <c r="E85" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" t="s">
-        <v>26</v>
-      </c>
-      <c r="C86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="1">
-        <v>6.3979999999999997</v>
-      </c>
-      <c r="E86" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="1">
-        <v>5.8463636363636367</v>
-      </c>
-      <c r="E87" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.854375</v>
-      </c>
-      <c r="E88" s="5">
-        <v>42443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="1">
-        <v>52.139999999999993</v>
-      </c>
-      <c r="E89" s="5">
-        <v>42443</v>
+      <c r="D107" s="1">
+        <v>-1.6769072164948446</v>
+      </c>
+      <c r="E107" s="4">
+        <v>42521</v>
       </c>
     </row>
   </sheetData>
